--- a/hickey_cv_data.xlsx
+++ b/hickey_cv_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="177">
   <si>
     <t xml:space="preserve">Where in your CV this entry belongs</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t xml:space="preserve">TUD Workshop on Physical and Data Sciences in Health and Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Use Open Source Software](https://www.youtube.com/watch?v=VsEuOy2kZzs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEDx Ballyroan</t>
   </si>
   <si>
     <t xml:space="preserve">Name of language</t>
@@ -877,14 +883,14 @@
   </sheetPr>
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.43"/>
@@ -1934,9 +1940,20 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+    <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="n">
+        <v>2019</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -8571,6 +8588,7 @@
     <hyperlink ref="B31" r:id="rId4" display="[Crystal structure of the ternary silicide U~2~RuSi~3~: a new ordered version of the hexagonal AlB~2~](https://pubs.rsc.org/en/content/articlelanding/1994/JM/JM9940400463)"/>
     <hyperlink ref="B33" r:id="rId5" display="[Grid-computing based data-mining of the Sloan Digital Sky Survey](https://github.com/eugene100hickey/cv/blob/master/RIA_Talk_final_2011.ppt)"/>
     <hyperlink ref="B34" r:id="rId6" display="[TUD Scientific Computing Group](https://rpubs.com/eugene100hickey/498663)"/>
+    <hyperlink ref="B35" r:id="rId7" display="https://www.youtube.com/watch?v=VsEuOy2kZzs"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -8593,7 +8611,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -8602,10 +8620,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -8634,10 +8652,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -8666,7 +8684,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B3" s="13" t="n">
         <v>5</v>
@@ -8674,7 +8692,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B4" s="13" t="n">
         <v>3</v>
@@ -8682,7 +8700,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B5" s="13" t="n">
         <v>1</v>
@@ -8690,7 +8708,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B6" s="13" t="n">
         <v>3</v>
@@ -8719,7 +8737,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="135.86"/>
@@ -8728,10 +8746,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -8763,7 +8781,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -8792,42 +8810,42 @@
     </row>
     <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11834,7 +11852,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.14"/>
@@ -11844,13 +11862,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -11882,65 +11900,65 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
